--- a/biology/Zoologie/Dendrolagus/Dendrolagus.xlsx
+++ b/biology/Zoologie/Dendrolagus/Dendrolagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrolagues, Kangourous arboricoles
 Les Dendrolagues (littéralement : lièvres arboricoles) ou Kangourous arboricoles (genre Dendrolagus) sont des macropodidés arboricoles. On les trouve exclusivement dans les forêts tropicales de Nouvelle-Guinée et dans l'extrême nord-est du Queensland en Australie et les îles environnantes, généralement dans les régions montagneuses. Tous sont menacés d'extinction.
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les kangourous et les wallabys, les dendrolagues ont des pattes arrière massives avec des pieds longs et étroits. Les dendrolagues ont développé de très longues queues pour un meilleur équilibre et des pattes avant plus puissantes pour mieux pouvoir grimper aux arbres. Leurs pieds sont plus courts et plus larges, avec de grandes griffes et des coussinets plantaires. À la différence des autres macropodes, ils peuvent avancer  leurs pattes alternativement ce qui leur permet de marcher au lieu de sauter.
 Il semble que les premiers marsupiaux aient été de petits marsupiaux arboricoles qui ressemblaient aux possums actuels puis certains, les macropodes, ont évolué et se sont adaptés à la marche sur le sol où ils sont capables de se déplacer rapidement. On ne sait pas pourquoi les ancêtres des dendrolagues sont redevenus arboricoles.
@@ -546,9 +560,11 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre contient, dans l'état actuel des connaissances, environ douze espèces[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre contient, dans l'état actuel des connaissances, environ douze espèces :
 Dendrolague de Bennett, Dendrolagus bennettianus (Australie)
 Dendrolague de Doria, Dendrolagus dorianus (Papouasie-Nouvelle-Guinée)
 Dendrolague de Goodfellow, Dendrolagus goodfellowi (Papouasie-Nouvelle-Guinée)
